--- a/document/excel_upload_자료/TBL_EXP_SAMPLE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_SAMPLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\스타에셋프로젝트\DB\excelUploadTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1A0AE8-5869-4FA2-9D2F-F3EBC9C595F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D06777-AB93-4B28-B88C-1D557A880540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="2895" windowWidth="19830" windowHeight="12045" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,14 +332,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -690,13 +690,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -767,10 +767,10 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="17">
+      <c r="A6" s="15">
         <v>51115125782</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>51115125782</v>
       </c>
       <c r="C6" s="14">

--- a/document/excel_upload_자료/TBL_EXP_SAMPLE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_SAMPLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52D06777-AB93-4B28-B88C-1D557A880540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9FA8BD3-CF95-435A-ACE3-36145CE6E002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -687,6 +687,7 @@
     <col min="2" max="2" width="31.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="34.5" customHeight="1">

--- a/document/excel_upload_자료/TBL_EXP_SAMPLE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_SAMPLE.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9FA8BD3-CF95-435A-ACE3-36145CE6E002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F20A5F4-2631-4AB5-958F-7229C811B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="34110" yWindow="2220" windowWidth="16800" windowHeight="9780" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +108,10 @@
   <si>
     <t>Y</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -286,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +345,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,7 +689,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -769,10 +780,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="15">
-        <v>51115125782</v>
+        <v>111</v>
       </c>
       <c r="B6" s="15">
-        <v>51115125782</v>
+        <v>222</v>
       </c>
       <c r="C6" s="14">
         <v>44521</v>
@@ -785,4 +796,146 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD36C598-8456-4C3B-97E5-AD14CD2BB3F7}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="24">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="48">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="15">
+        <v>51115125782</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/excel_upload_자료/TBL_EXP_SAMPLE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_SAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F20A5F4-2631-4AB5-958F-7229C811B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6E3677-8D1F-44E0-9314-1B3A00116FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34110" yWindow="2220" windowWidth="16800" windowHeight="9780" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="31605" yWindow="2940" windowWidth="16800" windowHeight="9780" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,24 @@
   <si>
     <t>skip</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>CDATE:D</t>
+  </si>
+  <si>
+    <t>첫 컬럼</t>
+  </si>
+  <si>
+    <t>둘쨰 컬럼</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -341,16 +359,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,7 +707,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -702,13 +720,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -757,25 +775,25 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +833,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>

--- a/document/excel_upload_자료/TBL_EXP_SAMPLE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_SAMPLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6E3677-8D1F-44E0-9314-1B3A00116FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3160E2-C313-465D-A9B4-097FEE1B5C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31605" yWindow="2940" windowWidth="16800" windowHeight="9780" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,14 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -223,7 +231,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +383,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,7 +727,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -784,6 +804,9 @@
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="D4" s="21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="12" t="s">
@@ -795,17 +818,21 @@
       <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="D5" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="15">
-        <v>111</v>
+        <v>444</v>
       </c>
       <c r="B6" s="15">
-        <v>222</v>
+        <v>555</v>
       </c>
       <c r="C6" s="14">
-        <v>44521</v>
-      </c>
+        <v>45982</v>
+      </c>
+      <c r="D6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
